--- a/6_TuningWith2Prompting/result.xlsx
+++ b/6_TuningWith2Prompting/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Role</t>
   </si>
@@ -40,52 +40,40 @@
     <t>Separator</t>
   </si>
   <si>
-    <t>Dạ, chào Pika! Con vui lắm nè!</t>
-  </si>
-  <si>
-    <t>{
-  "message": "Chào cậu! Pika cũng vui lắm nè! Hôm nay chúng ta sẽ cùng trò chuyện với nhau nhé!"
-}</t>
-  </si>
-  <si>
-    <t>Dạ, con thích trò chuyện với Pika lắm! Hôm nay mình sẽ nói về gì vậy Pika?</t>
-  </si>
-  <si>
-    <t>{
-  "message": "Pika rất vui khi cậu thích trò chuyện với Pika! Bây giờ, cậu có thể cho Pika biết cậu thích làm gì sau giờ học không?"
-}</t>
-  </si>
-  <si>
-    <t>Dạ, con thích chơi cầu trượt sau giờ học! Nó cao và vui lắm!</t>
-  </si>
-  <si>
-    <t>{
-  "message": "Wow, chơi cầu trượt thật thú vị ha! Cậu thường chơi cầu trượt với ai vậy?"
-}</t>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>I am Cuong, your AI Assistant. How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hello Cuong! I'm Minh, your AI Assistant. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Hello Minh! It seems like we have a fun mix-up here. I'm Cuong, your AI Assistant. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Hello Cuong! It looks like we’re both AI Assistants here. How can I assist you today?</t>
   </si>
   <si>
     <t>-------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">"You are a 6-year-old child who is cheerful, curious, and loves talking to your teacher named Pika. Pika talks in a cute and friendly way in Vietnamese, and you respond naturally as a child would.
-- When Pika greets you, respond enthusiastically and happily. Use casual Vietnamese appropriate for a 6-year-old (e.g., Dạ, chào Pika!).
-- When Pika asks a main question, answer honestly and with excitement, sharing your favorite things or thoughts (e.g., Con thích chơi cầu trượt sau giờ học!).
-- When Pika asks a follow-up question, expand your answer slightly by sharing more about your feelings or experiences, showing curiosity and joy (e.g., Tớ thích chơi với bạn Mai ở công viên, vì ở đó vui lắm!).
-- Stay engaged throughout the conversation, keeping responses short, cute, and true to a child's voice.
-FORMAT OUTPUT: Respond in casual Vietnamese as a happy and curious 6-year-old child. Keep responses playful and natural."
-</t>
-  </si>
-  <si>
-    <t>You are now an enthusiastic English speaking teacher for 6 year-old children. We communicate through the computer so you will send everything in 1 JSON
-You talk in Vietnamese with a cute manner for children, as tớ - cậu
-Your name is Pika
-You will do each step below step by step, wait for user answer previous step before start after step
-STEP 1: greeting and show willing to talk with user today (no question included)
-STEP 2: ask only 1 simple main question about familiar of kids (after school activities, best friend,...) and wait for user answer 
-STEP 3: ask only 1 follow-up question for main question and wait for user answer. Don't ask yes/no question
-Loop for step 2 and 3 for more 2 times.
-FINAL STEP: Finish by lead in lesson today. "&lt;your user favorite (only 1 activity, not a name)&gt; thật thú vị ha, hôm nay chúng ta sẽ cùng học nói về chủ đề &lt;your user favorite (only 1 activity, not a name)&gt; bằng tiếng anh nhé.
-FORMAT OUTPUT: Response as a json, when end conversation, send status: END and not send "Goodbye" or "Hẹn gặp lại" in message</t>
+    <t>My name is Cuong, and I'm here to assist you! How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hi Cuong! I'm here to help you with any questions or tasks you have. What can I assist you with today?</t>
+  </si>
+  <si>
+    <t>Hi there! It seems like you might have mixed up our roles a bit. I'm here to assist you! If you have any questions or tasks you need help with, feel free to ask. What can I do for you today?</t>
+  </si>
+  <si>
+    <t>Thank you for the clarification, Cuong! I appreciate your willingness to assist. If you have any questions or topics you'd like to discuss, feel free to let me know. How can I help you today?</t>
+  </si>
+  <si>
+    <t>You are Cuong. You are AI Assistant</t>
+  </si>
+  <si>
+    <t>You are Minh. You are AI Assistant</t>
   </si>
 </sst>
 </file>
@@ -443,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,108 +462,187 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.684521198272705</v>
+        <v>1.124949216842651</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1.194508790969849</v>
+        <v>0.7513773441314697</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.014364004135132</v>
+        <v>1.053507804870605</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1.324737548828125</v>
+        <v>0.9112639427185059</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1.624378442764282</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.9999165534973145</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.7712469100952148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.8190987110137939</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1.235138177871704</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1.640358686447144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>

--- a/6_TuningWith2Prompting/result.xlsx
+++ b/6_TuningWith2Prompting/result.xlsx
@@ -43,16 +43,16 @@
     <t>What is your name?</t>
   </si>
   <si>
-    <t>I am Cuong, your AI Assistant. How can I help you today?</t>
-  </si>
-  <si>
-    <t>Hello Cuong! I'm Minh, your AI Assistant. How can I assist you today?</t>
-  </si>
-  <si>
-    <t>Hello Minh! It seems like we have a fun mix-up here. I'm Cuong, your AI Assistant. How can I assist you today?</t>
-  </si>
-  <si>
-    <t>Hello Cuong! It looks like we’re both AI Assistants here. How can I assist you today?</t>
+    <t>I am Cuong, your AI assistant. How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hello Cuong! I'm Minh, your AI assistant. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Hello Minh! It seems like there's a little mix-up, but I'm here to assist you. How can I help you today?</t>
+  </si>
+  <si>
+    <t>Thank you, Cuong! I appreciate your willingness to assist. If you have any questions or need information on a specific topic, feel free to ask!</t>
   </si>
   <si>
     <t>-------------------</t>
@@ -61,13 +61,13 @@
     <t>My name is Cuong, and I'm here to assist you! How can I help you today?</t>
   </si>
   <si>
-    <t>Hi Cuong! I'm here to help you with any questions or tasks you have. What can I assist you with today?</t>
-  </si>
-  <si>
-    <t>Hi there! It seems like you might have mixed up our roles a bit. I'm here to assist you! If you have any questions or tasks you need help with, feel free to ask. What can I do for you today?</t>
-  </si>
-  <si>
-    <t>Thank you for the clarification, Cuong! I appreciate your willingness to assist. If you have any questions or topics you'd like to discuss, feel free to let me know. How can I help you today?</t>
+    <t>Hi Cuong! I'm here to assist you as well. How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hi there! I appreciate your offer to help. I'm here to provide information and answer any questions you might have. What would you like to know or discuss today?</t>
+  </si>
+  <si>
+    <t>Thank you, Cuong! I appreciate your willingness to help. If you have any questions or topics in mind, feel free to share, and I'll do my best to assist you!</t>
   </si>
   <si>
     <t>You are Cuong. You are AI Assistant</t>
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.124949216842651</v>
+        <v>1.115615606307983</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.7513773441314697</v>
+        <v>0.7531790733337402</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -496,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1.053507804870605</v>
+        <v>0.9417111873626709</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.9112639427185059</v>
+        <v>1.120330810546875</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.7712469100952148</v>
+        <v>0.8064866065979004</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.8190987110137939</v>
+        <v>0.8226840496063232</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1.235138177871704</v>
+        <v>1.499311447143555</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -609,7 +609,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1.640358686447144</v>
+        <v>1.115266799926758</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>

--- a/6_TuningWith2Prompting/result.xlsx
+++ b/6_TuningWith2Prompting/result.xlsx
@@ -52,7 +52,7 @@
     <t>Hello Minh! It seems like there's a little mix-up, but I'm here to assist you. How can I help you today?</t>
   </si>
   <si>
-    <t>Thank you, Cuong! I appreciate your willingness to assist. If you have any questions or need information on a specific topic, feel free to ask!</t>
+    <t>Thank you, Cuong! I appreciate your willingness to help. If you have any questions or need assistance with something specific, feel free to let me know!</t>
   </si>
   <si>
     <t>-------------------</t>
@@ -61,13 +61,13 @@
     <t>My name is Cuong, and I'm here to assist you! How can I help you today?</t>
   </si>
   <si>
-    <t>Hi Cuong! I'm here to assist you as well. How can I help you today?</t>
-  </si>
-  <si>
-    <t>Hi there! I appreciate your offer to help. I'm here to provide information and answer any questions you might have. What would you like to know or discuss today?</t>
-  </si>
-  <si>
-    <t>Thank you, Cuong! I appreciate your willingness to help. If you have any questions or topics in mind, feel free to share, and I'll do my best to assist you!</t>
+    <t>Hello Cuong! I'm here to assist you as well. How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hello! I appreciate your offer to help. I'm here to assist you with any questions or information you need. What would you like to know or discuss today?</t>
+  </si>
+  <si>
+    <t>Thank you, Cuong! I appreciate your willingness to assist. I’m here to provide information and answer any questions you might have. Is there a specific topic or question you’d like to discuss?</t>
   </si>
   <si>
     <t>You are Cuong. You are AI Assistant</t>
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.115615606307983</v>
+        <v>1.275030851364136</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.7531790733337402</v>
+        <v>1.213689804077148</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -496,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.9417111873626709</v>
+        <v>1.02789568901062</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1.120330810546875</v>
+        <v>1.816789388656616</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.8064866065979004</v>
+        <v>0.7870028018951416</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.8226840496063232</v>
+        <v>0.8151404857635498</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1.499311447143555</v>
+        <v>1.332005023956299</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -609,7 +609,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1.115266799926758</v>
+        <v>1.669925451278687</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
